--- a/datos_fbref/RESUMEN_STATS_Premier_League.xlsx
+++ b/datos_fbref/RESUMEN_STATS_Premier_League.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estadisticas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -544,28 +544,28 @@
         <v>57.7</v>
       </c>
       <c r="E2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" t="n">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="G2" t="n">
-        <v>2340</v>
+        <v>2430</v>
       </c>
       <c r="H2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K2" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L2" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
@@ -574,25 +574,25 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R2" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>3.08</v>
+        <v>3.11</v>
       </c>
       <c r="T2" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U2" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1808,7 +1808,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" t="n">
         <v>26.6</v>
@@ -1817,28 +1817,28 @@
         <v>43.6</v>
       </c>
       <c r="E21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F21" t="n">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="G21" t="n">
-        <v>2340</v>
+        <v>2430</v>
       </c>
       <c r="H21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I21" t="n">
+        <v>17</v>
+      </c>
+      <c r="J21" t="n">
+        <v>11</v>
+      </c>
+      <c r="K21" t="n">
+        <v>28</v>
+      </c>
+      <c r="L21" t="n">
         <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>10</v>
-      </c>
-      <c r="K21" t="n">
-        <v>25</v>
-      </c>
-      <c r="L21" t="n">
-        <v>13</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
@@ -1847,25 +1847,25 @@
         <v>3</v>
       </c>
       <c r="O21" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.58</v>
+        <v>0.63</v>
       </c>
       <c r="R21" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="S21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="U21" t="n">
         <v>0.96</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0.88</v>
       </c>
     </row>
   </sheetData>

--- a/datos_fbref/RESUMEN_STATS_Premier_League.xlsx
+++ b/datos_fbref/RESUMEN_STATS_Premier_League.xlsx
@@ -739,7 +739,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="D5" t="n">
         <v>46.4</v>
